--- a/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.31850447076471</v>
+        <v>92.86694858262938</v>
       </c>
       <c r="D2" t="n">
-        <v>8.165438224064781</v>
+        <v>8.207655727202221</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.25165614917418</v>
+        <v>92.6311098478552</v>
       </c>
       <c r="D3" t="n">
-        <v>8.924561476565971</v>
+        <v>8.454200216877037</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.45725935835662</v>
+        <v>92.46984871547849</v>
       </c>
       <c r="D4" t="n">
-        <v>8.323066550594072</v>
+        <v>8.729304390262298</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.70210524920606</v>
+        <v>89.53263309910773</v>
       </c>
       <c r="D5" t="n">
-        <v>7.989462433922111</v>
+        <v>8.147264219677394</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.02953779102128</v>
+        <v>89.06789583755275</v>
       </c>
       <c r="D6" t="n">
-        <v>8.518196671924558</v>
+        <v>8.245547870729274</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.00966678002642</v>
+        <v>88.10806503582016</v>
       </c>
       <c r="D7" t="n">
-        <v>7.552718132958302</v>
+        <v>7.434649678377438</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.76503101431186</v>
+        <v>88.00458827958519</v>
       </c>
       <c r="D8" t="n">
-        <v>8.90705789221381</v>
+        <v>7.991068599739758</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.45459521940207</v>
+        <v>84.91880309955242</v>
       </c>
       <c r="D9" t="n">
-        <v>8.926160211960827</v>
+        <v>7.875286552883255</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.21260271804023</v>
+        <v>86.22009117026569</v>
       </c>
       <c r="D10" t="n">
-        <v>8.720971643404908</v>
+        <v>7.764838612010188</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.80994460014958</v>
+        <v>82.50893707266367</v>
       </c>
       <c r="D11" t="n">
-        <v>8.647957283698773</v>
+        <v>7.949747495231262</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.30227951642824</v>
+        <v>83.32246384352719</v>
       </c>
       <c r="D12" t="n">
-        <v>8.964760749239559</v>
+        <v>8.302234250070745</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.56738052268457</v>
+        <v>83.20803156426246</v>
       </c>
       <c r="D13" t="n">
-        <v>8.78255573267268</v>
+        <v>7.675803311913236</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.32879105459863</v>
+        <v>80.96001668178063</v>
       </c>
       <c r="D14" t="n">
-        <v>8.085151109769379</v>
+        <v>7.396795270714614</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43395744122847</v>
+        <v>79.15933669602504</v>
       </c>
       <c r="D15" t="n">
-        <v>9.019364366097998</v>
+        <v>7.040008022839633</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.7766056214961</v>
+        <v>77.91905376915861</v>
       </c>
       <c r="D16" t="n">
-        <v>8.532275403753921</v>
+        <v>8.490869124468004</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.01353894149047</v>
+        <v>77.13099082446438</v>
       </c>
       <c r="D17" t="n">
-        <v>7.6583558781217</v>
+        <v>8.155736487856215</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.30028366787266</v>
+        <v>76.9850622835678</v>
       </c>
       <c r="D18" t="n">
-        <v>8.290914524420222</v>
+        <v>8.596722503859503</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.10907489607118</v>
+        <v>73.99882978856584</v>
       </c>
       <c r="D19" t="n">
-        <v>7.933844483740197</v>
+        <v>8.869537109588052</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.88992851383863</v>
+        <v>72.12612561027882</v>
       </c>
       <c r="D20" t="n">
-        <v>8.074820890196566</v>
+        <v>7.718354966623017</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.35247252069742</v>
+        <v>71.99838839753743</v>
       </c>
       <c r="D21" t="n">
-        <v>8.206411069390329</v>
+        <v>7.903878316983296</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.68423623336433</v>
+        <v>71.29381765696027</v>
       </c>
       <c r="D22" t="n">
-        <v>8.531418693560571</v>
+        <v>7.595938145602059</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.06748374935833</v>
+        <v>71.13906468636273</v>
       </c>
       <c r="D23" t="n">
-        <v>9.091386290772354</v>
+        <v>7.678513146274269</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.81680174605843</v>
+        <v>68.37838921412225</v>
       </c>
       <c r="D24" t="n">
-        <v>9.121922223679789</v>
+        <v>8.215123523953441</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.6863964569132</v>
+        <v>69.54857088191952</v>
       </c>
       <c r="D25" t="n">
-        <v>8.607773392912923</v>
+        <v>7.34216086533604</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.53300034003303</v>
+        <v>68.63568735282801</v>
       </c>
       <c r="D26" t="n">
-        <v>9.195559879116599</v>
+        <v>9.066732657883811</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.77320051614319</v>
+        <v>67.3784601805861</v>
       </c>
       <c r="D27" t="n">
-        <v>9.304042368996122</v>
+        <v>8.435870377736054</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.64043291600179</v>
+        <v>64.01127679501784</v>
       </c>
       <c r="D28" t="n">
-        <v>8.115845753420976</v>
+        <v>8.319676135641439</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.72987673992944</v>
+        <v>64.61517602231189</v>
       </c>
       <c r="D29" t="n">
-        <v>7.965328325962071</v>
+        <v>7.480985319031297</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.75673921891647</v>
+        <v>63.28201281596356</v>
       </c>
       <c r="D30" t="n">
-        <v>8.219369649168451</v>
+        <v>7.85958341660847</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.92390023366329</v>
+        <v>62.12890605991615</v>
       </c>
       <c r="D31" t="n">
-        <v>8.738888970799028</v>
+        <v>6.602907200810148</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.28295940973219</v>
+        <v>61.30704939487497</v>
       </c>
       <c r="D32" t="n">
-        <v>7.448751464051337</v>
+        <v>8.119003532230781</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.06004683300075</v>
+        <v>58.92503599856175</v>
       </c>
       <c r="D33" t="n">
-        <v>7.978724049201158</v>
+        <v>7.606358312988061</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.47190273609834</v>
+        <v>57.50574293102039</v>
       </c>
       <c r="D34" t="n">
-        <v>8.271150282092187</v>
+        <v>7.798566849678079</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.09109889494104</v>
+        <v>58.79958892043454</v>
       </c>
       <c r="D35" t="n">
-        <v>8.323173573987678</v>
+        <v>7.343291594359068</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.434751885319</v>
+        <v>57.73802277455476</v>
       </c>
       <c r="D36" t="n">
-        <v>7.431547062165057</v>
+        <v>7.794019479480885</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.16980663938593</v>
+        <v>55.4748993082291</v>
       </c>
       <c r="D37" t="n">
-        <v>7.151109523712449</v>
+        <v>8.181864990146334</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.60432561270684</v>
+        <v>56.40632945228839</v>
       </c>
       <c r="D38" t="n">
-        <v>8.579712965437849</v>
+        <v>8.194685353648325</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.74013802285818</v>
+        <v>53.79037036418987</v>
       </c>
       <c r="D39" t="n">
-        <v>8.68751849217368</v>
+        <v>8.596433601759365</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.64787104775638</v>
+        <v>52.21500027745966</v>
       </c>
       <c r="D40" t="n">
-        <v>7.187591787136193</v>
+        <v>8.31036449588183</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.2517412183871</v>
+        <v>53.77441483548407</v>
       </c>
       <c r="D41" t="n">
-        <v>8.118763917954647</v>
+        <v>7.750635638730274</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.97154428224505</v>
+        <v>50.14646964270253</v>
       </c>
       <c r="D42" t="n">
-        <v>7.9243468623118</v>
+        <v>7.680759451404493</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.03755756384141</v>
+        <v>50.6506970974951</v>
       </c>
       <c r="D43" t="n">
-        <v>7.409347045037226</v>
+        <v>8.245021368351368</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.11874464008774</v>
+        <v>48.0230635296735</v>
       </c>
       <c r="D44" t="n">
-        <v>8.205636622496495</v>
+        <v>8.434190267961291</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.71120450409872</v>
+        <v>46.602000097927</v>
       </c>
       <c r="D45" t="n">
-        <v>7.263680786098237</v>
+        <v>7.904079380980185</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.79050462048701</v>
+        <v>46.44165890418317</v>
       </c>
       <c r="D46" t="n">
-        <v>8.825482483989386</v>
+        <v>7.348177637625344</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.23550311478585</v>
+        <v>44.29445473080226</v>
       </c>
       <c r="D47" t="n">
-        <v>9.23951222232726</v>
+        <v>8.823767960471233</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.63164402734349</v>
+        <v>43.15693236229351</v>
       </c>
       <c r="D48" t="n">
-        <v>8.012246029266986</v>
+        <v>8.395773169554651</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.30504433994533</v>
+        <v>44.5120025525825</v>
       </c>
       <c r="D49" t="n">
-        <v>8.61061860634269</v>
+        <v>8.477904008413255</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.37122246342607</v>
+        <v>43.56560188870711</v>
       </c>
       <c r="D50" t="n">
-        <v>7.688654763424396</v>
+        <v>7.845363011379418</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.03818219630382</v>
+        <v>41.32596813849494</v>
       </c>
       <c r="D51" t="n">
-        <v>8.148309021176809</v>
+        <v>8.814151922874988</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.1926607825428</v>
+        <v>39.63424075274513</v>
       </c>
       <c r="D52" t="n">
-        <v>8.036429950892247</v>
+        <v>7.588131834799605</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.66214873008862</v>
+        <v>38.51123637407827</v>
       </c>
       <c r="D53" t="n">
-        <v>8.811077185010518</v>
+        <v>8.072954489831433</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.795303349111</v>
+        <v>36.99279681434257</v>
       </c>
       <c r="D54" t="n">
-        <v>8.112044685170533</v>
+        <v>8.267802534401957</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.81976389236275</v>
+        <v>36.57238449966606</v>
       </c>
       <c r="D55" t="n">
-        <v>8.804430059541035</v>
+        <v>7.843467306844765</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.07221937225536</v>
+        <v>35.6506739450413</v>
       </c>
       <c r="D56" t="n">
-        <v>8.108579046962943</v>
+        <v>7.750943844380376</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.08746501436171</v>
+        <v>35.4919497596152</v>
       </c>
       <c r="D57" t="n">
-        <v>8.59603665373773</v>
+        <v>8.082511727215415</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.11955104865744</v>
+        <v>33.5587317831732</v>
       </c>
       <c r="D58" t="n">
-        <v>7.443238120738886</v>
+        <v>7.941889086893636</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.10744177557323</v>
+        <v>33.17585248686379</v>
       </c>
       <c r="D59" t="n">
-        <v>8.272808070366551</v>
+        <v>7.03755295072874</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.63812112387266</v>
+        <v>30.80246723310428</v>
       </c>
       <c r="D60" t="n">
-        <v>8.036583214149232</v>
+        <v>7.855606478528526</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.90185542760053</v>
+        <v>31.45795295217054</v>
       </c>
       <c r="D61" t="n">
-        <v>8.171856302975831</v>
+        <v>8.680293937257277</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.22326850328631</v>
+        <v>30.46655515185807</v>
       </c>
       <c r="D62" t="n">
-        <v>8.168054524015536</v>
+        <v>7.648137171717509</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.10720261791996</v>
+        <v>29.05128104887639</v>
       </c>
       <c r="D63" t="n">
-        <v>8.048037950374473</v>
+        <v>7.80384710034182</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.91939703498152</v>
+        <v>26.8520483221521</v>
       </c>
       <c r="D64" t="n">
-        <v>8.003759115316059</v>
+        <v>8.670726389418114</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.40420759514009</v>
+        <v>28.0082258286056</v>
       </c>
       <c r="D65" t="n">
-        <v>8.275948927181181</v>
+        <v>7.743000055888146</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.78648317303016</v>
+        <v>25.52351391367084</v>
       </c>
       <c r="D66" t="n">
-        <v>7.840759638048988</v>
+        <v>7.10145562396309</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.68215488314593</v>
+        <v>25.52146797236527</v>
       </c>
       <c r="D67" t="n">
-        <v>9.433385326501758</v>
+        <v>7.546954294598237</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.69584628773912</v>
+        <v>25.49543096964358</v>
       </c>
       <c r="D68" t="n">
-        <v>8.735984961506256</v>
+        <v>7.334474536798583</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.88541804823588</v>
+        <v>22.61980347279406</v>
       </c>
       <c r="D69" t="n">
-        <v>8.533011426000133</v>
+        <v>7.819964263424248</v>
       </c>
     </row>
   </sheetData>
